--- a/pred_ohlcv/54_21/2020-01-23 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 FAB ohlcv.xlsx
@@ -2836,7 +2836,7 @@
         <v>-867742.6697820256</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-871698.3115820256</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-901025.1690820256</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-900995.1690820256</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1063087.826482026</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1053087.826482026</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1085313.354082026</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1175313.354082026</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1145313.354082026</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1163852.156482026</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1132987.049582026</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1132987.049582026</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1148110.576082025</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1201679.615282025</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1183219.141782025</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1255020.241582025</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-1255020.241582025</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1255512.689882025</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-1255482.689882025</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-1262111.454582025</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-1261928.797182025</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1204285.105982025</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1207777.516182025</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1284298.019082025</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1284298.019082025</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-711240.3046191059</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-746284.8475191059</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-746255.8475191059</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-735526.9925754296</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-735526.9925754296</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-744946.4055754296</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-758236.6401754295</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-799307.5054754295</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-799307.5054754295</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-810693.0368754294</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-810693.0368754294</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-810693.0368754294</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-810663.0368754294</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1037310.49907543</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1047311.08437543</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1059622.66157543</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1056281.14137543</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1085358.04297543</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1078328.04297543</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1089673.17747543</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-1100439.31197543</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-1100466.68047543</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1100466.68047543</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-1100466.68047543</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1100466.68047543</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-1100466.68047543</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-1123892.62507543</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-1118086.49257543</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-1469002.23437543</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-2204082.016175429</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-3714023.40677543</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-3714054.40677543</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-3679977.32037543</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-3680008.32037543</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-3687154.57457543</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 FAB ohlcv.xlsx
@@ -2836,7 +2836,7 @@
         <v>-867742.6697820256</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-871698.3115820256</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-901025.1690820256</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-900995.1690820256</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1063087.826482026</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1053087.826482026</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1085313.354082026</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1175313.354082026</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1145313.354082026</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1163852.156482026</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1132987.049582026</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1132987.049582026</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1148110.576082025</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1201679.615282025</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1183219.141782025</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1255020.241582025</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-1255020.241582025</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1255512.689882025</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-1255482.689882025</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-1262111.454582025</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-1261928.797182025</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1204285.105982025</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1207777.516182025</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1284298.019082025</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1284298.019082025</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-711240.3046191059</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-746284.8475191059</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-746255.8475191059</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-735526.9925754296</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-735526.9925754296</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-744946.4055754296</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-758236.6401754295</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-799307.5054754295</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-799307.5054754295</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-810693.0368754294</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-810693.0368754294</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-810693.0368754294</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-810663.0368754294</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1037310.49907543</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1047311.08437543</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1059622.66157543</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1078328.04297543</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-1100466.68047543</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-1100466.68047543</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1100466.68047543</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-1100466.68047543</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-1469002.23437543</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-2204082.016175429</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-3714023.40677543</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-3714054.40677543</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-3714054.40677543</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-3679977.32037543</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-3680008.32037543</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-3676753.09767543</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
